--- a/Книга1.xlsx.xlsx
+++ b/Книга1.xlsx.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,42 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>Зарплата</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Оплата за час</t>
+  </si>
+  <si>
+    <t>Часов в день</t>
+  </si>
+  <si>
+    <t>Дней</t>
+  </si>
+  <si>
+    <t>петров  а.д</t>
+  </si>
+  <si>
+    <t>Иванов д. б</t>
+  </si>
+  <si>
+    <t>СУММА:</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +54,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -42,25 +110,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +284,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,7 +356,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -343,36 +529,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="5" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
